--- a/data/portfolio.xlsx
+++ b/data/portfolio.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t xml:space="preserve">Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZF7921</t>
   </si>
   <si>
     <t xml:space="preserve">Eq Holdings Statement as on 2020-10-26</t>
@@ -338,7 +335,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -346,7 +343,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1739880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -359,8 +356,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241200" y="152280"/>
-          <a:ext cx="1739880" cy="228240"/>
+          <a:off x="240840" y="152280"/>
+          <a:ext cx="1739520" cy="227880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -383,7 +380,7 @@
   <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,72 +391,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>8</v>
@@ -497,13 +492,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>4</v>
@@ -541,13 +536,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
@@ -585,13 +580,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1</v>
@@ -629,13 +624,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -673,13 +668,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
@@ -717,13 +712,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
@@ -761,13 +756,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>4</v>
@@ -805,13 +800,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
@@ -849,13 +844,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
@@ -893,13 +888,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1</v>
@@ -937,13 +932,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>15</v>
@@ -981,13 +976,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
@@ -1025,13 +1020,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>4</v>
@@ -1069,13 +1064,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
@@ -1113,13 +1108,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>4</v>
@@ -1157,13 +1152,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
@@ -1201,13 +1196,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>11</v>
@@ -1245,13 +1240,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1</v>
@@ -1289,13 +1284,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>10</v>
@@ -1333,13 +1328,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>19</v>
